--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 9801-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 9801-2019.xlsx", "A 9801-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 9801-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 9801-2019.png", "A 9801-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 9801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 9801-2019.docx", "A 9801-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 9801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 9801-2019.docx", "A 9801-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 9801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 9801-2019.docx", "A 9801-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 9801-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 9801-2019.docx", "A 9801-2019")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -713,27 +713,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 42551-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 42551-2018.xlsx", "A 42551-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 42551-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 42551-2018.png", "A 42551-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 42551-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 42551-2018.docx", "A 42551-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 42551-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 42551-2018.docx", "A 42551-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 42551-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 42551-2018.docx", "A 42551-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 42551-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 42551-2018.docx", "A 42551-2018")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -800,31 +800,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51646-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51646-2019.xlsx", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51646-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51646-2019.png", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 51646-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 51646-2019.png", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51646-2019.docx", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51646-2019.docx", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51646-2019.docx", "A 51646-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51646-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51646-2019.docx", "A 51646-2019")</f>
         <v/>
       </c>
     </row>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -890,27 +890,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 59861-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 59861-2018.xlsx", "A 59861-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 59861-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 59861-2018.png", "A 59861-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 59861-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 59861-2018.docx", "A 59861-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 59861-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 59861-2018.docx", "A 59861-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 59861-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 59861-2018.docx", "A 59861-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 59861-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 59861-2018.docx", "A 59861-2018")</f>
         <v/>
       </c>
     </row>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,31 +976,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 17321-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 17321-2019.xlsx", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 17321-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 17321-2019.png", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 17321-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 17321-2019.png", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 17321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 17321-2019.docx", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 17321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 17321-2019.docx", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 17321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 17321-2019.docx", "A 17321-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 17321-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 17321-2019.docx", "A 17321-2019")</f>
         <v/>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1066,27 +1066,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 41523-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 41523-2019.xlsx", "A 41523-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 41523-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 41523-2019.png", "A 41523-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 41523-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 41523-2019.docx", "A 41523-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 41523-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 41523-2019.docx", "A 41523-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 41523-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 41523-2019.docx", "A 41523-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 41523-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 41523-2019.docx", "A 41523-2019")</f>
         <v/>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1152,27 +1152,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 48017-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 48017-2019.xlsx", "A 48017-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 48017-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 48017-2019.png", "A 48017-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 48017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 48017-2019.docx", "A 48017-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 48017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 48017-2019.docx", "A 48017-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 48017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 48017-2019.docx", "A 48017-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 48017-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 48017-2019.docx", "A 48017-2019")</f>
         <v/>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1238,31 +1238,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51645-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51645-2019.xlsx", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51645-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51645-2019.png", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 51645-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 51645-2019.png", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51645-2019.docx", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51645-2019.docx", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51645-2019.docx", "A 51645-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51645-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51645-2019.docx", "A 51645-2019")</f>
         <v/>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,31 +1328,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 2988-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 2988-2021.xlsx", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 2988-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 2988-2021.png", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 2988-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 2988-2021.png", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 2988-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 2988-2021.docx", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 2988-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 2988-2021.docx", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 2988-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 2988-2021.docx", "A 2988-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 2988-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 2988-2021.docx", "A 2988-2021")</f>
         <v/>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1418,27 +1418,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 10670-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 10670-2021.xlsx", "A 10670-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 10670-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 10670-2021.png", "A 10670-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 10670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 10670-2021.docx", "A 10670-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 10670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 10670-2021.docx", "A 10670-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 10670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 10670-2021.docx", "A 10670-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 10670-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 10670-2021.docx", "A 10670-2021")</f>
         <v/>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1504,31 +1504,31 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 25716-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 25716-2021.xlsx", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 25716-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 25716-2021.png", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="U12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 25716-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 25716-2021.png", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 25716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 25716-2021.docx", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 25716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 25716-2021.docx", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 25716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 25716-2021.docx", "A 25716-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 25716-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 25716-2021.docx", "A 25716-2021")</f>
         <v/>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1599,27 +1599,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 8314-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 8314-2022.xlsx", "A 8314-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 8314-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 8314-2022.png", "A 8314-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 8314-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 8314-2022.docx", "A 8314-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 8314-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 8314-2022.docx", "A 8314-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 8314-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 8314-2022.docx", "A 8314-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 8314-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 8314-2022.docx", "A 8314-2022")</f>
         <v/>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1685,27 +1685,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 11855-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 11855-2023.xlsx", "A 11855-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 11855-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 11855-2023.png", "A 11855-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 11855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 11855-2023.docx", "A 11855-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 11855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 11855-2023.docx", "A 11855-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 11855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 11855-2023.docx", "A 11855-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 11855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 11855-2023.docx", "A 11855-2023")</f>
         <v/>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,27 +1771,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 24024-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 24024-2023.xlsx", "A 24024-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 24024-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 24024-2023.png", "A 24024-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 24024-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 24024-2023.docx", "A 24024-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 24024-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 24024-2023.docx", "A 24024-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 24024-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 24024-2023.docx", "A 24024-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 24024-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 24024-2023.docx", "A 24024-2023")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1857,27 +1857,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 24031-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 24031-2023.xlsx", "A 24031-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 24031-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 24031-2023.png", "A 24031-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 24031-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 24031-2023.docx", "A 24031-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 24031-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 24031-2023.docx", "A 24031-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 24031-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 24031-2023.docx", "A 24031-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 24031-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 24031-2023.docx", "A 24031-2023")</f>
         <v/>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1942,27 +1942,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 48695-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 48695-2018.xlsx", "A 48695-2018")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 48695-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 48695-2018.png", "A 48695-2018")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 48695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 48695-2018.docx", "A 48695-2018")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 48695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 48695-2018.docx", "A 48695-2018")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 48695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 48695-2018.docx", "A 48695-2018")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 48695-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 48695-2018.docx", "A 48695-2018")</f>
         <v/>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2032,27 +2032,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 10169-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 10169-2019.xlsx", "A 10169-2019")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 10169-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 10169-2019.png", "A 10169-2019")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 10169-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 10169-2019.docx", "A 10169-2019")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 10169-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 10169-2019.docx", "A 10169-2019")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 10169-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 10169-2019.docx", "A 10169-2019")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 10169-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 10169-2019.docx", "A 10169-2019")</f>
         <v/>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2117,31 +2117,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 17331-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 17331-2019.xlsx", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 17331-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 17331-2019.png", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 17331-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 17331-2019.png", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 17331-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 17331-2019.docx", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 17331-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 17331-2019.docx", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 17331-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 17331-2019.docx", "A 17331-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 17331-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 17331-2019.docx", "A 17331-2019")</f>
         <v/>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2206,27 +2206,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 54638-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 54638-2019.xlsx", "A 54638-2019")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 54638-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 54638-2019.png", "A 54638-2019")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 54638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 54638-2019.docx", "A 54638-2019")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 54638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 54638-2019.docx", "A 54638-2019")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 54638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 54638-2019.docx", "A 54638-2019")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 54638-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 54638-2019.docx", "A 54638-2019")</f>
         <v/>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2291,27 +2291,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 62203-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 62203-2019.xlsx", "A 62203-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 62203-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 62203-2019.png", "A 62203-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 62203-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 62203-2019.docx", "A 62203-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 62203-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 62203-2019.docx", "A 62203-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 62203-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 62203-2019.docx", "A 62203-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 62203-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 62203-2019.docx", "A 62203-2019")</f>
         <v/>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2376,27 +2376,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 59685-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 59685-2020.xlsx", "A 59685-2020")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 59685-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 59685-2020.png", "A 59685-2020")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 59685-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 59685-2020.docx", "A 59685-2020")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 59685-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 59685-2020.docx", "A 59685-2020")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 59685-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 59685-2020.docx", "A 59685-2020")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 59685-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 59685-2020.docx", "A 59685-2020")</f>
         <v/>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,27 +2461,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 6165-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 6165-2021.xlsx", "A 6165-2021")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 6165-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 6165-2021.png", "A 6165-2021")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 6165-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 6165-2021.docx", "A 6165-2021")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 6165-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 6165-2021.docx", "A 6165-2021")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 6165-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 6165-2021.docx", "A 6165-2021")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 6165-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 6165-2021.docx", "A 6165-2021")</f>
         <v/>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2551,27 +2551,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 7040-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 7040-2021.xlsx", "A 7040-2021")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 7040-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 7040-2021.png", "A 7040-2021")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 7040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 7040-2021.docx", "A 7040-2021")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 7040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 7040-2021.docx", "A 7040-2021")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 7040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 7040-2021.docx", "A 7040-2021")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 7040-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 7040-2021.docx", "A 7040-2021")</f>
         <v/>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2636,27 +2636,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 16358-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 16358-2021.xlsx", "A 16358-2021")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 16358-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 16358-2021.png", "A 16358-2021")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 16358-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 16358-2021.docx", "A 16358-2021")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 16358-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 16358-2021.docx", "A 16358-2021")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 16358-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 16358-2021.docx", "A 16358-2021")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 16358-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 16358-2021.docx", "A 16358-2021")</f>
         <v/>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 47908-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 47908-2021.xlsx", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 47908-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 47908-2021.png", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="U26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 47908-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 47908-2021.png", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 47908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 47908-2021.docx", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 47908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 47908-2021.docx", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 47908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 47908-2021.docx", "A 47908-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 47908-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 47908-2021.docx", "A 47908-2021")</f>
         <v/>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2810,27 +2810,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 47909-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 47909-2021.xlsx", "A 47909-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 47909-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 47909-2021.png", "A 47909-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 47909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 47909-2021.docx", "A 47909-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 47909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 47909-2021.docx", "A 47909-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 47909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 47909-2021.docx", "A 47909-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 47909-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 47909-2021.docx", "A 47909-2021")</f>
         <v/>
       </c>
     </row>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2895,27 +2895,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51284-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 51284-2021.xlsx", "A 51284-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51284-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 51284-2021.png", "A 51284-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51284-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 51284-2021.docx", "A 51284-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51284-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 51284-2021.docx", "A 51284-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51284-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 51284-2021.docx", "A 51284-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51284-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 51284-2021.docx", "A 51284-2021")</f>
         <v/>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2980,27 +2980,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 67665-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 67665-2021.xlsx", "A 67665-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 67665-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 67665-2021.png", "A 67665-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 67665-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 67665-2021.docx", "A 67665-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 67665-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 67665-2021.docx", "A 67665-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 67665-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 67665-2021.docx", "A 67665-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 67665-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 67665-2021.docx", "A 67665-2021")</f>
         <v/>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3065,27 +3065,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 3220-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 3220-2022.xlsx", "A 3220-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 3220-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 3220-2022.png", "A 3220-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 3220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 3220-2022.docx", "A 3220-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 3220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 3220-2022.docx", "A 3220-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 3220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 3220-2022.docx", "A 3220-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 3220-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 3220-2022.docx", "A 3220-2022")</f>
         <v/>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3150,27 +3150,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 13387-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 13387-2022.xlsx", "A 13387-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 13387-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 13387-2022.png", "A 13387-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 13387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 13387-2022.docx", "A 13387-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 13387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 13387-2022.docx", "A 13387-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 13387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 13387-2022.docx", "A 13387-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 13387-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 13387-2022.docx", "A 13387-2022")</f>
         <v/>
       </c>
     </row>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3235,27 +3235,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 33935-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 33935-2022.xlsx", "A 33935-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 33935-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 33935-2022.png", "A 33935-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 33935-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 33935-2022.docx", "A 33935-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 33935-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 33935-2022.docx", "A 33935-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 33935-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 33935-2022.docx", "A 33935-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 33935-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 33935-2022.docx", "A 33935-2022")</f>
         <v/>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3320,27 +3320,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 205-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 205-2023.xlsx", "A 205-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 205-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 205-2023.png", "A 205-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 205-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 205-2023.docx", "A 205-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 205-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 205-2023.docx", "A 205-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 205-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 205-2023.docx", "A 205-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 205-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 205-2023.docx", "A 205-2023")</f>
         <v/>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3405,27 +3405,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 9911-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 9911-2023.xlsx", "A 9911-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 9911-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 9911-2023.png", "A 9911-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 9911-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 9911-2023.docx", "A 9911-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 9911-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 9911-2023.docx", "A 9911-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 9911-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 9911-2023.docx", "A 9911-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 9911-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 9911-2023.docx", "A 9911-2023")</f>
         <v/>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3490,27 +3490,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 13460-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 13460-2023.xlsx", "A 13460-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 13460-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 13460-2023.png", "A 13460-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 13460-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 13460-2023.docx", "A 13460-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 13460-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 13460-2023.docx", "A 13460-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 13460-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 13460-2023.docx", "A 13460-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 13460-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 13460-2023.docx", "A 13460-2023")</f>
         <v/>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3575,31 +3575,31 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 18430-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 18430-2023.xlsx", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 18430-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 18430-2023.png", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 18430-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/knärot/A 18430-2023.png", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 18430-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 18430-2023.docx", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 18430-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 18430-2023.docx", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 18430-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 18430-2023.docx", "A 18430-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 18430-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 18430-2023.docx", "A 18430-2023")</f>
         <v/>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3664,27 +3664,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 25295-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 25295-2023.xlsx", "A 25295-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 25295-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 25295-2023.png", "A 25295-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 25295-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 25295-2023.docx", "A 25295-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 25295-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 25295-2023.docx", "A 25295-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 25295-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 25295-2023.docx", "A 25295-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 25295-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 25295-2023.docx", "A 25295-2023")</f>
         <v/>
       </c>
     </row>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3754,27 +3754,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 29270-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 29270-2023.xlsx", "A 29270-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 29270-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 29270-2023.png", "A 29270-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 29270-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 29270-2023.docx", "A 29270-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 29270-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 29270-2023.docx", "A 29270-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 29270-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 29270-2023.docx", "A 29270-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 29270-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 29270-2023.docx", "A 29270-2023")</f>
         <v/>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3839,27 +3839,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 30359-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/artfynd/A 30359-2023.xlsx", "A 30359-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 30359-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/kartor/A 30359-2023.png", "A 30359-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 30359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomål/A 30359-2023.docx", "A 30359-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 30359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/klagomålsmail/A 30359-2023.docx", "A 30359-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 30359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsyn/A 30359-2023.docx", "A 30359-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 30359-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_LJUNGBY/tillsynsmail/A 30359-2023.docx", "A 30359-2023")</f>
         <v/>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -45617,7 +45617,7 @@
         <v>45131</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -45674,7 +45674,7 @@
         <v>45131</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>45131</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -45788,7 +45788,7 @@
         <v>45139</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -45845,7 +45845,7 @@
         <v>45159</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>45161</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>

--- a/Översikt LJUNGBY.xlsx
+++ b/Översikt LJUNGBY.xlsx
@@ -572,7 +572,7 @@
         <v>43509</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>43354</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         <v>43740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>43419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>43550</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>43699</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>43725</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         <v>43740</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>44216</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>44258</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         <v>44343</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>44610</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44995</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>45078</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         <v>43374</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>43510</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>43550</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>43748</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43788</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44151</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         <v>44232</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2495,7 +2495,7 @@
         <v>44237</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44292</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>44448</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>44448</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         <v>44461</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44524</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3099,7 +3099,7 @@
         <v>44645</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3184,7 +3184,7 @@
         <v>44790</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
         <v>44928</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44985</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>45005</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>45042</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>45086</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45105</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         <v>45111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>43321</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>43327</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         <v>43329</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
         <v>43333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>43348</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>43354</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         <v>43359</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
         <v>43360</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>43362</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>43362</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43362</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         <v>43375</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>43377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
         <v>43377</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>43378</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>43382</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>43385</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>43389</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>43390</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>43390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>43391</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>43391</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>43396</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>43397</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43398</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>43398</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>43398</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>43399</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>43399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5789,7 +5789,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         <v>43402</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>43402</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
         <v>43402</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         <v>43402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
         <v>43403</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>43404</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43404</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         <v>43404</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>43408</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>43408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
         <v>43409</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43410</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6701,7 +6701,7 @@
         <v>43410</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         <v>43410</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         <v>43410</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>43410</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43411</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>43411</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
         <v>43412</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>43412</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>43414</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43416</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>43418</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>43419</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>43419</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>43419</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>43419</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         <v>43419</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>43419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7670,7 +7670,7 @@
         <v>43425</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7727,7 +7727,7 @@
         <v>43425</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7784,7 +7784,7 @@
         <v>43426</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7841,7 +7841,7 @@
         <v>43426</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7898,7 +7898,7 @@
         <v>43427</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7955,7 +7955,7 @@
         <v>43430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
         <v>43430</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>43430</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43431</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43431</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43431</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>43431</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>43432</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>43433</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>43437</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>43437</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         <v>43437</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8644,7 +8644,7 @@
         <v>43438</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>43438</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43438</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43438</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>43439</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8929,7 +8929,7 @@
         <v>43441</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>43441</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9043,7 +9043,7 @@
         <v>43444</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9100,7 +9100,7 @@
         <v>43445</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43446</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43446</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>43446</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43446</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>43446</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43446</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
         <v>43448</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
         <v>43453</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43454</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>43455</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>43461</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>43461</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>43461</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>43461</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>43469</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>43469</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10114,7 +10114,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>43480</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>43480</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>43481</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         <v>43481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10818,7 +10818,7 @@
         <v>43482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>43487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>43489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10989,7 +10989,7 @@
         <v>43490</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11046,7 +11046,7 @@
         <v>43493</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11103,7 +11103,7 @@
         <v>43493</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11160,7 +11160,7 @@
         <v>43495</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11217,7 +11217,7 @@
         <v>43496</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43496</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43497</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43497</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43497</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43500</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43503</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43503</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11673,7 +11673,7 @@
         <v>43503</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11730,7 +11730,7 @@
         <v>43504</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11787,7 +11787,7 @@
         <v>43507</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         <v>43507</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>43507</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>43509</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12015,7 +12015,7 @@
         <v>43509</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12072,7 +12072,7 @@
         <v>43510</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12129,7 +12129,7 @@
         <v>43510</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12191,7 +12191,7 @@
         <v>43510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12248,7 +12248,7 @@
         <v>43517</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43521</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12362,7 +12362,7 @@
         <v>43521</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>43522</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43524</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12533,7 +12533,7 @@
         <v>43530</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12590,7 +12590,7 @@
         <v>43531</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12647,7 +12647,7 @@
         <v>43531</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>43531</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43531</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43531</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43535</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43535</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43537</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43538</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43539</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43539</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43543</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13331,7 +13331,7 @@
         <v>43546</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13388,7 +13388,7 @@
         <v>43550</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>43556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13502,7 +13502,7 @@
         <v>43557</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13559,7 +13559,7 @@
         <v>43558</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13616,7 +13616,7 @@
         <v>43558</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>43560</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13730,7 +13730,7 @@
         <v>43565</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13787,7 +13787,7 @@
         <v>43566</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13844,7 +13844,7 @@
         <v>43566</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13901,7 +13901,7 @@
         <v>43570</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>43571</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         <v>43572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>43572</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>43572</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         <v>43573</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>43579</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>43579</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>43579</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>43588</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>43588</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14528,7 +14528,7 @@
         <v>43592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>43599</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>43600</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14704,7 +14704,7 @@
         <v>43606</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
         <v>43606</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14818,7 +14818,7 @@
         <v>43609</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14875,7 +14875,7 @@
         <v>43613</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14932,7 +14932,7 @@
         <v>43616</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43627</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15046,7 +15046,7 @@
         <v>43627</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>43633</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>43633</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>43633</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>43640</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>43648</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>43648</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>43648</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>43651</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>43656</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>43656</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>43661</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>43668</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>43669</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>43676</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>43676</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>43676</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>43683</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>43683</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>43683</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>43683</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>43683</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>43683</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43683</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43686</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43686</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43689</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43691</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43693</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43698</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43698</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43698</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43698</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43698</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43699</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43699</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>43704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>43705</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>43706</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>43707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>43707</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>43710</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43711</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43711</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>43712</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>43714</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>43714</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>43719</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>43719</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>43719</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43719</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43721</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43725</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43725</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>43725</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43726</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18300,7 +18300,7 @@
         <v>43728</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43735</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43739</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43739</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43741</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43741</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43742</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43753</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43759</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43759</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43773</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43775</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
         <v>43777</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>43780</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19222,7 +19222,7 @@
         <v>43780</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19279,7 +19279,7 @@
         <v>43783</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19341,7 +19341,7 @@
         <v>43787</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>43789</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19455,7 +19455,7 @@
         <v>43790</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43797</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19569,7 +19569,7 @@
         <v>43801</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>43803</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>43804</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>43804</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>43808</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>43810</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>43810</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>43810</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43810</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43818</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43818</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>43818</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>43838</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>43838</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>43840</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>43850</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>43851</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>43853</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>43853</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>43866</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>43873</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>43874</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>43881</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>43900</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>43908</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43910</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>43913</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21113,7 +21113,7 @@
         <v>43913</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21170,7 +21170,7 @@
         <v>43913</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>43914</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>43915</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>43916</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>43920</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>43921</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>43922</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>43924</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>43927</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>43927</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>43929</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>43936</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>43936</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21916,7 +21916,7 @@
         <v>43937</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>43937</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>43937</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>43937</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>43942</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>43950</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>43951</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22320,7 +22320,7 @@
         <v>43951</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22377,7 +22377,7 @@
         <v>43965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>43966</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>43966</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>43966</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>43970</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>43971</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22719,7 +22719,7 @@
         <v>43971</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22776,7 +22776,7 @@
         <v>43984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22833,7 +22833,7 @@
         <v>43987</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22890,7 +22890,7 @@
         <v>43992</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>43999</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>43999</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23061,7 +23061,7 @@
         <v>44000</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23118,7 +23118,7 @@
         <v>44005</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23175,7 +23175,7 @@
         <v>44005</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44008</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44011</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44020</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44033</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44036</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44036</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44043</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44049</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44056</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44060</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44060</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44061</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23916,7 +23916,7 @@
         <v>44064</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23973,7 +23973,7 @@
         <v>44069</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24030,7 +24030,7 @@
         <v>44070</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24087,7 +24087,7 @@
         <v>44070</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24144,7 +24144,7 @@
         <v>44075</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>44075</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24258,7 +24258,7 @@
         <v>44075</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         <v>44078</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24372,7 +24372,7 @@
         <v>44084</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24429,7 +24429,7 @@
         <v>44084</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24486,7 +24486,7 @@
         <v>44090</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44097</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44098</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44104</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>44109</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24771,7 +24771,7 @@
         <v>44110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44112</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24885,7 +24885,7 @@
         <v>44119</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24947,7 +24947,7 @@
         <v>44125</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25004,7 +25004,7 @@
         <v>44126</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
         <v>44129</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>44130</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>44134</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44140</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44140</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44144</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25408,7 +25408,7 @@
         <v>44145</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25465,7 +25465,7 @@
         <v>44146</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>44146</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44146</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44151</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44152</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         <v>44152</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44152</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44154</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25921,7 +25921,7 @@
         <v>44157</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25978,7 +25978,7 @@
         <v>44158</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44160</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26097,7 +26097,7 @@
         <v>44160</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26154,7 +26154,7 @@
         <v>44160</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26211,7 +26211,7 @@
         <v>44165</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26268,7 +26268,7 @@
         <v>44165</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26325,7 +26325,7 @@
         <v>44165</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>44169</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26439,7 +26439,7 @@
         <v>44169</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26496,7 +26496,7 @@
         <v>44169</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26553,7 +26553,7 @@
         <v>44169</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44172</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44173</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44174</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44175</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44180</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>44180</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>44181</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
         <v>44181</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44181</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27128,7 +27128,7 @@
         <v>44186</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27185,7 +27185,7 @@
         <v>44186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27242,7 +27242,7 @@
         <v>44186</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27299,7 +27299,7 @@
         <v>44186</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>44187</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27413,7 +27413,7 @@
         <v>44187</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27470,7 +27470,7 @@
         <v>44194</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27527,7 +27527,7 @@
         <v>44203</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27584,7 +27584,7 @@
         <v>44204</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27641,7 +27641,7 @@
         <v>44209</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27698,7 +27698,7 @@
         <v>44211</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27755,7 +27755,7 @@
         <v>44211</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27812,7 +27812,7 @@
         <v>44221</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>44224</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27926,7 +27926,7 @@
         <v>44228</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27983,7 +27983,7 @@
         <v>44228</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28040,7 +28040,7 @@
         <v>44229</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28097,7 +28097,7 @@
         <v>44229</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28154,7 +28154,7 @@
         <v>44230</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28211,7 +28211,7 @@
         <v>44230</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28268,7 +28268,7 @@
         <v>44231</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28325,7 +28325,7 @@
         <v>44235</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28382,7 +28382,7 @@
         <v>44235</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28439,7 +28439,7 @@
         <v>44237</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28496,7 +28496,7 @@
         <v>44245</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28553,7 +28553,7 @@
         <v>44245</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28610,7 +28610,7 @@
         <v>44246</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28667,7 +28667,7 @@
         <v>44246</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28724,7 +28724,7 @@
         <v>44251</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28781,7 +28781,7 @@
         <v>44251</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44253</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28895,7 +28895,7 @@
         <v>44258</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28952,7 +28952,7 @@
         <v>44258</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29009,7 +29009,7 @@
         <v>44258</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29066,7 +29066,7 @@
         <v>44259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29123,7 +29123,7 @@
         <v>44260</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29180,7 +29180,7 @@
         <v>44265</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29237,7 +29237,7 @@
         <v>44266</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29294,7 +29294,7 @@
         <v>44267</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29351,7 +29351,7 @@
         <v>44271</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29408,7 +29408,7 @@
         <v>44272</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29465,7 +29465,7 @@
         <v>44280</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29522,7 +29522,7 @@
         <v>44280</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29579,7 +29579,7 @@
         <v>44281</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29641,7 +29641,7 @@
         <v>44284</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29698,7 +29698,7 @@
         <v>44292</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29755,7 +29755,7 @@
         <v>44295</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29812,7 +29812,7 @@
         <v>44297</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29869,7 +29869,7 @@
         <v>44297</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44304</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44305</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -30045,7 +30045,7 @@
         <v>44305</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -30107,7 +30107,7 @@
         <v>44315</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -30164,7 +30164,7 @@
         <v>44320</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44326</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -30278,7 +30278,7 @@
         <v>44328</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -30335,7 +30335,7 @@
         <v>44341</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30392,7 +30392,7 @@
         <v>44349</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44349</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44357</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30573,7 +30573,7 @@
         <v>44363</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30630,7 +30630,7 @@
         <v>44365</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30687,7 +30687,7 @@
         <v>44371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30744,7 +30744,7 @@
         <v>44376</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30801,7 +30801,7 @@
         <v>44377</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30858,7 +30858,7 @@
         <v>44377</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30915,7 +30915,7 @@
         <v>44380</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30972,7 +30972,7 @@
         <v>44380</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>44381</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -31086,7 +31086,7 @@
         <v>44404</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -31143,7 +31143,7 @@
         <v>44410</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>44418</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>44421</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>44424</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>44427</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>44431</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>44441</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>44441</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>44441</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44441</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>44441</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>44446</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>44446</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44448</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -32008,7 +32008,7 @@
         <v>44449</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -32065,7 +32065,7 @@
         <v>44454</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -32122,7 +32122,7 @@
         <v>44459</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>44459</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>44460</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>44460</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>44461</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>44465</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44468</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>44469</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44469</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44474</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44476</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44476</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44487</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44495</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44508</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44509</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44510</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44515</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44515</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>44515</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -33319,7 +33319,7 @@
         <v>44517</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33376,7 +33376,7 @@
         <v>44525</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44530</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44536</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44550</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44551</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>44565</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33718,7 +33718,7 @@
         <v>44568</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33775,7 +33775,7 @@
         <v>44573</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33837,7 +33837,7 @@
         <v>44573</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44576</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44585</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>44588</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>44595</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44603</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44606</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44607</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>44613</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44617</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>44622</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44634</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44634</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>44635</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44651</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44693</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34888,7 +34888,7 @@
         <v>44706</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>44712</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44714</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44714</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44714</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44715</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44721</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44735</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35354,7 +35354,7 @@
         <v>44740</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44743</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35468,7 +35468,7 @@
         <v>44749</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35525,7 +35525,7 @@
         <v>44750</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35582,7 +35582,7 @@
         <v>44753</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35639,7 +35639,7 @@
         <v>44764</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35696,7 +35696,7 @@
         <v>44764</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35753,7 +35753,7 @@
         <v>44793</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35810,7 +35810,7 @@
         <v>44802</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35867,7 +35867,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35924,7 +35924,7 @@
         <v>44806</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35981,7 +35981,7 @@
         <v>44807</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>44810</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -36095,7 +36095,7 @@
         <v>44810</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -36152,7 +36152,7 @@
         <v>44812</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -36209,7 +36209,7 @@
         <v>44817</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -36266,7 +36266,7 @@
         <v>44817</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>44818</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44818</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36437,7 +36437,7 @@
         <v>44820</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44820</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36551,7 +36551,7 @@
         <v>44831</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>44845</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36665,7 +36665,7 @@
         <v>44847</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36722,7 +36722,7 @@
         <v>44847</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36779,7 +36779,7 @@
         <v>44847</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36836,7 +36836,7 @@
         <v>44850</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36893,7 +36893,7 @@
         <v>44850</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36950,7 +36950,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -37007,7 +37007,7 @@
         <v>44853</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -37064,7 +37064,7 @@
         <v>44854</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>44855</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -37183,7 +37183,7 @@
         <v>44861</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -37240,7 +37240,7 @@
         <v>44867</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>44873</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>44873</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37411,7 +37411,7 @@
         <v>44874</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37468,7 +37468,7 @@
         <v>44874</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37525,7 +37525,7 @@
         <v>44874</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37582,7 +37582,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37639,7 +37639,7 @@
         <v>44875</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37696,7 +37696,7 @@
         <v>44875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37753,7 +37753,7 @@
         <v>44881</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37810,7 +37810,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>44882</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37924,7 +37924,7 @@
         <v>44886</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37981,7 +37981,7 @@
         <v>44886</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -38043,7 +38043,7 @@
         <v>44887</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -38100,7 +38100,7 @@
         <v>44887</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -38157,7 +38157,7 @@
         <v>44887</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -38214,7 +38214,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -38271,7 +38271,7 @@
         <v>44895</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -38328,7 +38328,7 @@
         <v>44895</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -38385,7 +38385,7 @@
         <v>44895</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38442,7 +38442,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38499,7 +38499,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38556,7 +38556,7 @@
         <v>44903</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>44907</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38670,7 +38670,7 @@
         <v>44908</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38732,7 +38732,7 @@
         <v>44908</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38794,7 +38794,7 @@
         <v>44908</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38856,7 +38856,7 @@
         <v>44908</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38918,7 +38918,7 @@
         <v>44908</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>44915</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>44917</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -39094,7 +39094,7 @@
         <v>44917</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -39151,7 +39151,7 @@
         <v>44923</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -39208,7 +39208,7 @@
         <v>44923</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -39265,7 +39265,7 @@
         <v>44924</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>44924</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>44928</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -39436,7 +39436,7 @@
         <v>44928</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39493,7 +39493,7 @@
         <v>44929</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39550,7 +39550,7 @@
         <v>44936</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39607,7 +39607,7 @@
         <v>44938</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39664,7 +39664,7 @@
         <v>44939</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>44941</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39778,7 +39778,7 @@
         <v>44942</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39835,7 +39835,7 @@
         <v>44944</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39892,7 +39892,7 @@
         <v>44946</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39954,7 +39954,7 @@
         <v>44959</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -40011,7 +40011,7 @@
         <v>44959</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -40073,7 +40073,7 @@
         <v>44959</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -40130,7 +40130,7 @@
         <v>44959</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>44959</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>44974</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>44981</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>44985</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>44985</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>44985</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>44986</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>44988</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>44991</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>44991</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>44993</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45005</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45005</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45005</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45005</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45012</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45012</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45012</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45015</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45015</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45019</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -41394,7 +41394,7 @@
         <v>45020</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -41456,7 +41456,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41513,7 +41513,7 @@
         <v>45026</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41570,7 +41570,7 @@
         <v>45027</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41627,7 +41627,7 @@
         <v>45029</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41684,7 +41684,7 @@
         <v>45032</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41741,7 +41741,7 @@
         <v>45032</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41798,7 +41798,7 @@
         <v>45033</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41855,7 +41855,7 @@
         <v>45033</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41912,7 +41912,7 @@
         <v>45035</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45035</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45035</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45040</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45041</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45048</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45048</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45054</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45054</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45061</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45061</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45062</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45065</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45065</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45069</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42767,7 +42767,7 @@
         <v>45070</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42824,7 +42824,7 @@
         <v>45070</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42881,7 +42881,7 @@
         <v>45077</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42938,7 +42938,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42995,7 +42995,7 @@
         <v>45079</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -43052,7 +43052,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -43109,7 +43109,7 @@
         <v>45081</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45082</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45082</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>45085</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>45089</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45089</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>45089</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45089</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45093</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45096</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45097</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45097</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -44078,7 +44078,7 @@
         <v>45097</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -44135,7 +44135,7 @@
         <v>45097</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -44192,7 +44192,7 @@
         <v>45097</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -44249,7 +44249,7 @@
         <v>45097</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -44306,7 +44306,7 @@
         <v>45097</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -44363,7 +44363,7 @@
         <v>45097</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -44420,7 +44420,7 @@
         <v>45098</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -44477,7 +44477,7 @@
         <v>45099</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -44534,7 +44534,7 @@
         <v>45099</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -44591,7 +44591,7 @@
         <v>45099</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -44648,7 +44648,7 @@
         <v>45099</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -44705,7 +44705,7 @@
         <v>45099</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -44762,7 +44762,7 @@
         <v>45103</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45103</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45103</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45109</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -44990,7 +44990,7 @@
         <v>45110</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -45047,7 +45047,7 @@
         <v>45111</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -45104,7 +45104,7 @@
         <v>45111</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -45161,7 +45161,7 @@
         <v>45111</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -45218,7 +45218,7 @@
         <v>45111</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -45275,7 +45275,7 @@
         <v>45112</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45119</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -45389,7 +45389,7 @@
         <v>45119</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -45446,7 +45446,7 @@
         <v>45121</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -45503,7 +45503,7 @@
         <v>45126</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -45560,7 +45560,7 @@
         <v>45131</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
  